--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.07765</v>
+        <v>0.012903</v>
       </c>
       <c r="H2">
-        <v>3.23295</v>
+        <v>0.038709</v>
       </c>
       <c r="I2">
-        <v>0.724140364002074</v>
+        <v>0.007033395044444537</v>
       </c>
       <c r="J2">
-        <v>0.7241403640020742</v>
+        <v>0.007033395044444538</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N2">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q2">
-        <v>131.8277627933</v>
+        <v>1.082719834867</v>
       </c>
       <c r="R2">
-        <v>1186.4498651397</v>
+        <v>9.744478513803001</v>
       </c>
       <c r="S2">
-        <v>0.7084535291556734</v>
+        <v>0.006721296265417823</v>
       </c>
       <c r="T2">
-        <v>0.7084535291556736</v>
+        <v>0.006721296265417824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.07765</v>
+        <v>0.012903</v>
       </c>
       <c r="H3">
-        <v>3.23295</v>
+        <v>0.038709</v>
       </c>
       <c r="I3">
-        <v>0.724140364002074</v>
+        <v>0.007033395044444537</v>
       </c>
       <c r="J3">
-        <v>0.7241403640020742</v>
+        <v>0.007033395044444538</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q3">
-        <v>0.4163579802666667</v>
+        <v>0.004985168672000001</v>
       </c>
       <c r="R3">
-        <v>3.7472218224</v>
+        <v>0.04486651804800001</v>
       </c>
       <c r="S3">
-        <v>0.00223754294438379</v>
+        <v>3.094687517358307E-05</v>
       </c>
       <c r="T3">
-        <v>0.00223754294438379</v>
+        <v>3.094687517358308E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.07765</v>
+        <v>0.012903</v>
       </c>
       <c r="H4">
-        <v>3.23295</v>
+        <v>0.038709</v>
       </c>
       <c r="I4">
-        <v>0.724140364002074</v>
+        <v>0.007033395044444537</v>
       </c>
       <c r="J4">
-        <v>0.7241403640020742</v>
+        <v>0.007033395044444538</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N4">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q4">
-        <v>2.5026201291</v>
+        <v>0.045290183752</v>
       </c>
       <c r="R4">
-        <v>22.5235811619</v>
+        <v>0.4076116537680001</v>
       </c>
       <c r="S4">
-        <v>0.01344929190201681</v>
+        <v>0.0002811519038531309</v>
       </c>
       <c r="T4">
-        <v>0.01344929190201681</v>
+        <v>0.000281151903853131</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4105283333333333</v>
+        <v>1.07765</v>
       </c>
       <c r="H5">
-        <v>1.231585</v>
+        <v>3.23295</v>
       </c>
       <c r="I5">
-        <v>0.2758596359979258</v>
+        <v>0.5874244880760796</v>
       </c>
       <c r="J5">
-        <v>0.2758596359979259</v>
+        <v>0.5874244880760796</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N5">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O5">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P5">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q5">
-        <v>50.21948846712333</v>
+        <v>90.42804231918333</v>
       </c>
       <c r="R5">
-        <v>451.97539620411</v>
+        <v>813.85238087265</v>
       </c>
       <c r="S5">
-        <v>0.2698837716961877</v>
+        <v>0.5613582051017219</v>
       </c>
       <c r="T5">
-        <v>0.2698837716961878</v>
+        <v>0.5613582051017219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4105283333333333</v>
+        <v>1.07765</v>
       </c>
       <c r="H6">
-        <v>1.231585</v>
+        <v>3.23295</v>
       </c>
       <c r="I6">
-        <v>0.2758596359979258</v>
+        <v>0.5874244880760796</v>
       </c>
       <c r="J6">
-        <v>0.2758596359979259</v>
+        <v>0.5874244880760796</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q6">
-        <v>0.1586106321244445</v>
+        <v>0.4163579802666667</v>
       </c>
       <c r="R6">
-        <v>1.42749568912</v>
+        <v>3.7472218224</v>
       </c>
       <c r="S6">
-        <v>0.0008523869305615335</v>
+        <v>0.002584662483981384</v>
       </c>
       <c r="T6">
-        <v>0.0008523869305615337</v>
+        <v>0.002584662483981384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.07765</v>
+      </c>
+      <c r="H7">
+        <v>3.23295</v>
+      </c>
+      <c r="I7">
+        <v>0.5874244880760796</v>
+      </c>
+      <c r="J7">
+        <v>0.5874244880760796</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.510050666666667</v>
+      </c>
+      <c r="N7">
+        <v>10.530152</v>
+      </c>
+      <c r="O7">
+        <v>0.03997385360505296</v>
+      </c>
+      <c r="P7">
+        <v>0.03997385360505297</v>
+      </c>
+      <c r="Q7">
+        <v>3.782606100933334</v>
+      </c>
+      <c r="R7">
+        <v>34.0434549084</v>
+      </c>
+      <c r="S7">
+        <v>0.02348162049037639</v>
+      </c>
+      <c r="T7">
+        <v>0.02348162049037639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7439806666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.231942</v>
+      </c>
+      <c r="I8">
+        <v>0.4055421168794758</v>
+      </c>
+      <c r="J8">
+        <v>0.4055421168794758</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>83.91225566666667</v>
+      </c>
+      <c r="N8">
+        <v>251.736767</v>
+      </c>
+      <c r="O8">
+        <v>0.9556261553553385</v>
+      </c>
+      <c r="P8">
+        <v>0.9556261553553385</v>
+      </c>
+      <c r="Q8">
+        <v>62.42909591239045</v>
+      </c>
+      <c r="R8">
+        <v>561.8618632115141</v>
+      </c>
+      <c r="S8">
+        <v>0.3875466539881988</v>
+      </c>
+      <c r="T8">
+        <v>0.3875466539881988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.4105283333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.231585</v>
-      </c>
-      <c r="I7">
-        <v>0.2758596359979258</v>
-      </c>
-      <c r="J7">
-        <v>0.2758596359979259</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.322294</v>
-      </c>
-      <c r="N7">
-        <v>6.966882</v>
-      </c>
-      <c r="O7">
-        <v>0.0185727692731934</v>
-      </c>
-      <c r="P7">
-        <v>0.0185727692731934</v>
-      </c>
-      <c r="Q7">
-        <v>0.9533674853299999</v>
-      </c>
-      <c r="R7">
-        <v>8.580307367969999</v>
-      </c>
-      <c r="S7">
-        <v>0.005123477371176593</v>
-      </c>
-      <c r="T7">
-        <v>0.005123477371176595</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7439806666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.231942</v>
+      </c>
+      <c r="I9">
+        <v>0.4055421168794758</v>
+      </c>
+      <c r="J9">
+        <v>0.4055421168794758</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3863573333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.159072</v>
+      </c>
+      <c r="O9">
+        <v>0.00439999103960854</v>
+      </c>
+      <c r="P9">
+        <v>0.00439999103960854</v>
+      </c>
+      <c r="Q9">
+        <v>0.287442386424889</v>
+      </c>
+      <c r="R9">
+        <v>2.586981477824</v>
+      </c>
+      <c r="S9">
+        <v>0.001784381680453573</v>
+      </c>
+      <c r="T9">
+        <v>0.001784381680453573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7439806666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.231942</v>
+      </c>
+      <c r="I10">
+        <v>0.4055421168794758</v>
+      </c>
+      <c r="J10">
+        <v>0.4055421168794758</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.510050666666667</v>
+      </c>
+      <c r="N10">
+        <v>10.530152</v>
+      </c>
+      <c r="O10">
+        <v>0.03997385360505296</v>
+      </c>
+      <c r="P10">
+        <v>0.03997385360505297</v>
+      </c>
+      <c r="Q10">
+        <v>2.611409835020445</v>
+      </c>
+      <c r="R10">
+        <v>23.502688515184</v>
+      </c>
+      <c r="S10">
+        <v>0.01621108121082344</v>
+      </c>
+      <c r="T10">
+        <v>0.01621108121082345</v>
       </c>
     </row>
   </sheetData>
